--- a/data/datapop.xlsx
+++ b/data/datapop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raseko-my.sharepoint.com/personal/42005_edu_raseko_fi/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5BF4518-E7C0-4F43-A551-B50A3E28146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B9974B-CF2D-4DB2-B95F-351756227DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Year</t>
   </si>
@@ -51,200 +51,206 @@
     <t>FoTP</t>
   </si>
   <si>
+    <t>Annual%</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>48.817</t>
-  </si>
-  <si>
-    <t>51.183</t>
+    <t>48.88%</t>
+  </si>
+  <si>
+    <t>51.18%</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>48.841</t>
-  </si>
-  <si>
-    <t>51.159</t>
+    <t>48.84%</t>
+  </si>
+  <si>
+    <t>51.16%</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
-    <t>48.867</t>
-  </si>
-  <si>
-    <t>51.133</t>
+    <t>48.87%</t>
+  </si>
+  <si>
+    <t>51.13%</t>
   </si>
   <si>
     <t>2003</t>
   </si>
   <si>
-    <t>48.893</t>
-  </si>
-  <si>
-    <t>51.107</t>
+    <t>48.89%</t>
+  </si>
+  <si>
+    <t>51.11%</t>
   </si>
   <si>
     <t>2004</t>
   </si>
   <si>
-    <t>48.919</t>
-  </si>
-  <si>
-    <t>51.081</t>
+    <t>48.92%</t>
+  </si>
+  <si>
+    <t>51.08%</t>
   </si>
   <si>
     <t>2005</t>
   </si>
   <si>
-    <t>48.945</t>
-  </si>
-  <si>
-    <t>51.055</t>
+    <t>48.95%</t>
+  </si>
+  <si>
+    <t>51.06%</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>48.971</t>
-  </si>
-  <si>
-    <t>51.029</t>
+    <t>48.97%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>48.997</t>
-  </si>
-  <si>
-    <t>51.003</t>
+    <t>49.00%</t>
+  </si>
+  <si>
+    <t>51.00%</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>49.023</t>
-  </si>
-  <si>
-    <t>50.977</t>
+    <t>49.02%</t>
+  </si>
+  <si>
+    <t>50.98%</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>49.049</t>
-  </si>
-  <si>
-    <t>50.951</t>
+    <t>49.05%</t>
+  </si>
+  <si>
+    <t>50.95%</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>49.076</t>
-  </si>
-  <si>
-    <t>50.924</t>
+    <t>49.08%</t>
+  </si>
+  <si>
+    <t>50.92%</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>49.105</t>
-  </si>
-  <si>
-    <t>50.895</t>
+    <t>49.11%</t>
+  </si>
+  <si>
+    <t>50.90%</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>49.134</t>
-  </si>
-  <si>
-    <t>50.866</t>
+    <t>49.13%</t>
+  </si>
+  <si>
+    <t>50.87%</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>49.163</t>
-  </si>
-  <si>
-    <t>50.837</t>
+    <t>49.16%</t>
+  </si>
+  <si>
+    <t>50.84%</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>49.191</t>
-  </si>
-  <si>
-    <t>50.809</t>
+    <t>49.19%</t>
+  </si>
+  <si>
+    <t>50.81%</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>49.216</t>
-  </si>
-  <si>
-    <t>50.784</t>
+    <t>49.22%</t>
+  </si>
+  <si>
+    <t>50.78%</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>49.239</t>
-  </si>
-  <si>
-    <t>50.761</t>
+    <t>49.24%</t>
+  </si>
+  <si>
+    <t>50.76%</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>49.26</t>
-  </si>
-  <si>
-    <t>50.74</t>
+    <t>49.30%</t>
+  </si>
+  <si>
+    <t>50.74%</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>49.279</t>
-  </si>
-  <si>
-    <t>50.721</t>
+    <t>49.28%</t>
+  </si>
+  <si>
+    <t>50.72%</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>49.297</t>
-  </si>
-  <si>
-    <t>50.703</t>
+    <t>50.70%</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>49.315</t>
-  </si>
-  <si>
-    <t>50.685</t>
+    <t>49.32%</t>
+  </si>
+  <si>
+    <t>50.69%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0\ %"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +280,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -290,13 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,11 +333,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -642,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:U22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,6 +664,7 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
@@ -660,533 +674,657 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="7"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="11" t="s">
-        <v>6</v>
+      <c r="A2" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>5176209</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2526845</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2">
         <v>2649364</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="10"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="10"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.2076065154133</v>
+      </c>
+      <c r="H2" s="11">
+        <v>125706651925.55701</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
+      <c r="A3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>5188008</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2533898</v>
       </c>
       <c r="D3">
         <v>2654110</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="8"/>
-      <c r="S3" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0.22768734188637399</v>
+      </c>
+      <c r="H3" s="12">
+        <v>129421029082.774</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
+      <c r="A4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>5200598</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2541376</v>
       </c>
       <c r="D4">
         <v>2659222</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="8"/>
-      <c r="S4" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0.242381050233372</v>
+      </c>
+      <c r="H4" s="12">
+        <v>139738377564.465</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
+      <c r="A5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>5213014</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2548805</v>
       </c>
       <c r="D5">
         <v>2664209</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="8"/>
-      <c r="S5" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0.238457240068217</v>
+      </c>
+      <c r="H5" s="12">
+        <v>171274266365.68799</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>18</v>
+      <c r="A6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
         <v>5228172</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2557589</v>
       </c>
       <c r="D6">
         <v>2670583</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="8"/>
-      <c r="S6" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>0.29035036151858401</v>
+      </c>
+      <c r="H6" s="12">
+        <v>197116960516.51401</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="11" t="s">
-        <v>21</v>
+      <c r="A7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
         <v>5246096</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2567723</v>
       </c>
       <c r="D7">
         <v>2678383</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="8"/>
-      <c r="S7" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>0.342248594286999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>204809103345.35501</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
+      <c r="A8" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
         <v>5266268</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>2578956</v>
       </c>
       <c r="D8">
         <v>2687312</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="8"/>
-      <c r="S8" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>0.38377713630510402</v>
+      </c>
+      <c r="H8" s="12">
+        <v>216907539831.89099</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="11" t="s">
-        <v>27</v>
+      <c r="A9" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>5288720</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>2591302</v>
       </c>
       <c r="D9">
         <v>2697418</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="8"/>
-      <c r="S9" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>0.42542983210063101</v>
+      </c>
+      <c r="H9" s="12">
+        <v>256052559540.104</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="11" t="s">
-        <v>30</v>
+      <c r="A10" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B10">
         <v>5313399</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2604763</v>
       </c>
       <c r="D10">
         <v>2708636</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="8"/>
-      <c r="S10" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>0.46554928450769401</v>
+      </c>
+      <c r="H10" s="12">
+        <v>284553976856.599</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="11" t="s">
-        <v>33</v>
+      <c r="A11" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B11">
         <v>5338871</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2618656</v>
       </c>
       <c r="D11">
         <v>2720215</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="8"/>
-      <c r="S11" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>0.47824639348291098</v>
+      </c>
+      <c r="H11" s="12">
+        <v>252496526813.004</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="11" t="s">
-        <v>36</v>
+      <c r="A12" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B12">
         <v>5363352</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>2632137</v>
       </c>
       <c r="D12">
         <v>2731215</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="8"/>
-      <c r="S12" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>0.45749453546583102</v>
+      </c>
+      <c r="H12" s="12">
+        <v>249181190476.36899</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
+      <c r="A13" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B13">
         <v>5388272</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>2645901</v>
       </c>
       <c r="D13">
         <v>2742371</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="8"/>
-      <c r="S13" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>0.46355870749913097</v>
+      </c>
+      <c r="H13" s="12">
+        <v>275243697751.01099</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="11" t="s">
-        <v>42</v>
+      <c r="A14" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B14">
         <v>5413971</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>2660106</v>
       </c>
       <c r="D14">
         <v>2753865</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="8"/>
-      <c r="S14" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>0.47580948668320899</v>
+      </c>
+      <c r="H14" s="12">
+        <v>258304834621.60501</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="11" t="s">
-        <v>45</v>
+      <c r="A15" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B15">
         <v>5438972</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>2673976</v>
       </c>
       <c r="D15">
         <v>2764999</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="8"/>
-      <c r="S15" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>0.46072377278529503</v>
+      </c>
+      <c r="H15" s="12">
+        <v>271285280621.37299</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="11" t="s">
-        <v>48</v>
+      <c r="A16" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B16">
         <v>5461512</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2686568</v>
       </c>
       <c r="D16">
         <v>2774944</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="8"/>
-      <c r="S16" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>0.41356020751941402</v>
+      </c>
+      <c r="H16" s="12">
+        <v>274497230802.95801</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="S16" s="9"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="11" t="s">
-        <v>51</v>
+      <c r="A17" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B17">
         <v>5479531</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>2696829</v>
       </c>
       <c r="D17">
         <v>2782702</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="8"/>
-      <c r="S17" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>0.32938388581850703</v>
+      </c>
+      <c r="H17" s="12">
+        <v>234440080998.27301</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="11" t="s">
-        <v>54</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>5495303</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>2705857</v>
       </c>
       <c r="D18">
         <v>2789446</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="8"/>
-      <c r="S18" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>0.28742140168763702</v>
+      </c>
+      <c r="H18" s="12">
+        <v>240607907010.383</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="11" t="s">
-        <v>57</v>
+      <c r="A19" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B19">
         <v>5508214</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>2743357</v>
       </c>
       <c r="D19">
         <v>2794857</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="8"/>
-      <c r="S19" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>0.23467053170545299</v>
+      </c>
+      <c r="H19" s="12">
+        <v>255016517537.983</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="11" t="s">
-        <v>60</v>
+      <c r="A20" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B20">
         <v>5515525</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>2718009</v>
       </c>
       <c r="D20">
         <v>2797516</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="8"/>
-      <c r="S20" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>0.132641040791912</v>
+      </c>
+      <c r="H20" s="12">
+        <v>275849574507.69202</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="11" t="s">
-        <v>63</v>
+      <c r="A21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B21">
         <v>5521606</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>2722008</v>
       </c>
       <c r="D21">
         <v>2799598</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="8"/>
-      <c r="S21" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>0.110191690491055</v>
+      </c>
+      <c r="H21" s="12">
+        <v>268966065200</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="11" t="s">
-        <v>66</v>
+      <c r="A22" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B22">
         <v>5530719</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>2727475</v>
       </c>
       <c r="D22">
         <v>2803244</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="8"/>
-      <c r="S22" s="11"/>
+      <c r="F22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>0.16490651632429201</v>
+      </c>
+      <c r="H22" s="12">
+        <v>271233883403.892</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="3"/>
@@ -1390,9 +1528,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1619,16 +1760,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA737F8-DCF9-4F00-966B-F2615A26100C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ECC3725-060F-4458-BC9B-889ADE2EA402}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1636,5 +1774,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ECC3725-060F-4458-BC9B-889ADE2EA402}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA737F8-DCF9-4F00-966B-F2615A26100C}"/>
 </file>